--- a/C#_memo.xlsx
+++ b/C#_memo.xlsx
@@ -1,26 +1,539 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EB513D-BB09-4C81-AFFD-3CCF81ED752F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11520" yWindow="15" windowWidth="9150" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="機能一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="選択肢" sheetId="3" r:id="rId2"/>
+    <sheet name="temp" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
+  <si>
+    <t>＃</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サポートバージョン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実装例</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>暗黙的型付け
+var</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var n = 1;
+var x = 1.0;
+var s = "test";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拡張メソッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>static class StringExtensions
+{
+  public static string ToggleCase(this string s)
+  中身省略
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メンドイのでVer2.0以前は省略</t>
+    <rPh sb="12" eb="14">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラムダ式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Func&lt;int, bool&gt; p = n =&gt; n &gt; 0;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期化子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Point p = new Point{ X = 0, Y = 1 };
+List&lt;int&gt; list = new List&lt;int&gt; {1, 2, 3};</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>匿名型</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var x = new { FamilyName = "糸色", FirstName="望"};</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暗黙型付け配列</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int[] array = new[] {1, 2, 3, 4};</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LINQ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動プロパティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public string Name { get; set; }</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パーシャルメソッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動的型付け変数
+dynamic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>static dynamic GetX(dynamic obj)
+{
+  return obj.X;
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプション引数・名前付き引数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>static int Sum(int x = 0, int y = 0, int z = 0)
+{
+  return x + y + z;
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public interface IEnumerable&lt;out T&gt; { ... }</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジェネリックの共変性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジェネリックの反変性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public delegate void Action&lt;in T&gt; (T arg);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>COM 相互運用時の特別処理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理
+async/await</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Caller Info 属性</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public static class Trace
+{
+    public static void WriteLine(string message,
+        [CallerFilePath] string file = "",
+        [CallerLineNumber] int line = 0,
+        [CallerMemberName] string member = "")
+    {
+        var s = string.Format("{0}:{1} - {2}: {3}", file, line, member, message);
+        Console.WriteLine(s);
+    }
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>foreach の仕様変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動プロパティの拡張
+初期化子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動プロパティの拡張
+getter のみの自動プロパティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>expression-bodied な関数メンバー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>null 条件演算子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列挿入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var formatted = $"({x}, {y})";</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public static int? X(Sample s) =&gt; s?.Name?.Length;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public class Polygon
+{
+    private Point[] _vertexes;
+    public int Count =&gt; _vertexes.Length;
+    public Point this[int i] =&gt; _vertexes[i];
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>class Point
+{
+    // ↓ set; を消すだけ
+    public int X { get; } = 10;
+    public int Y { get; } = 20;
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>class Point
+{
+    public int X { get; set; } = 10;
+    public int Y { get; set; } = 20;
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nameof 演算子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Console.WriteLine(nameof(MyClass));</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>using static</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>using static System.Math;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インデックス初期化子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var dic = new Dictionary&lt;string, int&gt;
+{
+    ["one"] = 1,
+    ["two"] = 2,
+};</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例外フィルター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>catch (ArgumentException e) when (e.ParamName == "x")</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>catch/finally 句内での await 演算子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拡張メソッドでコレクション初期化子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー定義コード解析に対する #pragma warning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構造体のプロパティ初期化</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンストラクターの循環参照</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>class C
+{
+    public C(int x) : this() { }
+    public C() : this(0) { } // C# 6ではコンパイル エラーに
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>struct Point
+{
+    public int X { get; private set; }
+    public Point(int x)
+    {
+        // C# 5.0まではエラーに。
+        X = x;
+    }
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確実な初期化」の判定改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>static void Main()
+{
+    int x;
+    if (false &amp;&amp; x == 3) // C# 5.0まではエラーに
+    {
+        x = x + 1; // ここはC# 5.0まででもOK
+    }
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列挙型の基底型</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>enum X : System.Int32 // C# 5.0まではエラーに
+{
+    A, B, C,
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数の「意味不変」ルール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オーバーロード解決の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内部的な最適化</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タプル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    // タプルを使って2つの戻り値を返す
+    static (int count, int sum) Tally(IEnumerable&lt;int&gt; items)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分解</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var (count, sum) = Tally(data);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力変数宣言</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p.GetCoordinate(out var x, out var y);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型スイッチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    case int n when n &gt; 0:
+        Console.WriteLine("正の数の時にここに来る " + n);
+        // ただし、上から順に判定するので、7 の時には来なくなる
+        break;
+    case int n:
+        Console.WriteLine("整数の時にここに来る" + n);
+        // 同上、0 以下の時にしか来ない
+        break;
+if (obj is string s)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>式の中での変数宣言</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値の破棄</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パフォーマンス改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照戻り値と参照ローカル変数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローカル関数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    static void Main()
+    {
+        // Main 関数の中で、ローカル関数 f を定義
+        int f(int n) =&gt; n &gt;= 1 ? n * f(n - 1) : 1;
+        Console.WriteLine(f(10));
+    }</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期メソッドの戻り値に任意の型を使えるように</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値リテラルの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>byte bitMask = 0b1100_0000;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>throw 式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>// 式形式メンバーの中( =&gt; の直後)
+static void A() =&gt; throw new NotImplementedException();
+static string B(object obj)
+{
+    // null 合体演算子(??)の後ろ
+    var s = obj as string ?? throw new ArgumentException(nameof(obj));
+    // 条件演算子(?:)の条件以外の部分
+    return s.Length == 0 ? "empty" :
+        s.Length &lt; 5 ? "short" :
+        throw new InvalidOperationException("too long");
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>式形式のメンバーの拡充</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>class Counter
+{
+    static int x;
+    // コンストラクター
+    Counter() =&gt; x++;
+    // デストラクター
+    ~Counter() =&gt; x--;
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +541,114 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,11 +657,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +968,1027 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F8650A-D21B-4B2B-A5FD-CD62F466427A}">
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12"/>
+    <row r="3" spans="1:4" ht="12">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12"/>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" customHeight="1">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="69" customHeight="1">
+      <c r="A7" s="2">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12">
+      <c r="A8" s="2">
+        <f t="shared" ref="A8:A26" si="0">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="12">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="48">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="48">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="24">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="132">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="60">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="72">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="84">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12">
+      <c r="A27" s="2">
+        <f t="shared" ref="A27:A39" si="1">A26+1</f>
+        <v>22</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12">
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12">
+      <c r="A29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60">
+      <c r="A30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="12">
+      <c r="A31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24">
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" ht="24">
+      <c r="A33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="24">
+      <c r="A34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="120">
+      <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60">
+      <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="96">
+      <c r="A37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="48">
+      <c r="A38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12">
+      <c r="A39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="12">
+      <c r="A40" s="2">
+        <f t="shared" ref="A40:A72" si="2">A39+1</f>
+        <v>35</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="12">
+      <c r="A41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="24">
+      <c r="A42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="12">
+      <c r="A43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12">
+      <c r="A44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="120">
+      <c r="A45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12">
+      <c r="A46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="12">
+      <c r="A47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="12">
+      <c r="A48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" ht="24">
+      <c r="A49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" ht="84">
+      <c r="A50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="24">
+      <c r="A51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" ht="12">
+      <c r="A52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="156">
+      <c r="A53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="120">
+      <c r="A54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12">
+      <c r="A55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" ht="12">
+      <c r="A56" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" ht="12">
+      <c r="A57" s="2">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" ht="12">
+      <c r="A58" s="2">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" ht="12">
+      <c r="A59" s="2">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" ht="12">
+      <c r="A60" s="2">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" ht="12">
+      <c r="A61" s="2">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" ht="12">
+      <c r="A62" s="2">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" ht="12">
+      <c r="A63" s="2">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" ht="12">
+      <c r="A64" s="2">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" ht="12">
+      <c r="A65" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" ht="12">
+      <c r="A66" s="2">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" ht="12">
+      <c r="A67" s="2">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" ht="12">
+      <c r="A68" s="2">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" ht="12">
+      <c r="A69" s="2">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" ht="12">
+      <c r="A70" s="2">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" ht="12">
+      <c r="A71" s="2">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" ht="12">
+      <c r="A72" s="2">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84CE8267-30B4-4E98-BF91-CF103C935D07}">
+          <x14:formula1>
+            <xm:f>選択肢!$A$1:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B72</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A927F997-7BD6-466C-A054-051D3C4DEB7A}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="5"/>
+    <col min="2" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="1"/>
+  </cols>
   <sheetData/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/C#_memo.xlsx
+++ b/C#_memo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2295B613-96AF-4F98-B368-F371DD4B2D46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5A2F43-3724-4F81-9400-E232C5998904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="15" windowWidth="9150" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="temp" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">機能一覧!$A$6:$E$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">機能一覧!$A$6:$E$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3870,19 +3870,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F8650A-D21B-4B2B-A5FD-CD62F466427A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E88"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D79" activeCellId="1" sqref="A83:XFD88 D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1"/>
     <col min="2" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
@@ -4061,7 +4063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24" hidden="1">
+    <row r="15" spans="1:5" ht="24">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4115,7 +4117,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24" hidden="1">
+    <row r="18" spans="1:5" ht="24">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4133,7 +4135,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24" hidden="1">
+    <row r="19" spans="1:5" ht="24">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4151,7 +4153,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24" hidden="1">
+    <row r="20" spans="1:5" ht="24">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4187,7 +4189,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="144" hidden="1">
+    <row r="22" spans="1:5" ht="144">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4205,7 +4207,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24" hidden="1">
+    <row r="23" spans="1:5" ht="24">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4421,7 +4423,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" hidden="1">
+    <row r="35" spans="1:5" ht="24">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -4511,7 +4513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" hidden="1">
+    <row r="40" spans="1:5" ht="24">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -4529,9 +4531,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" hidden="1">
+    <row r="41" spans="1:5" ht="24">
       <c r="A41" s="2">
-        <f t="shared" ref="A41:A88" si="2">A40+1</f>
+        <f t="shared" ref="A41:A82" si="2">A40+1</f>
         <v>35</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -4547,7 +4549,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="24" hidden="1">
+    <row r="42" spans="1:5" ht="24">
       <c r="A42" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -4619,7 +4621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="132" hidden="1">
+    <row r="46" spans="1:5" ht="132">
       <c r="A46" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -4637,7 +4639,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="24" hidden="1">
+    <row r="47" spans="1:5" ht="24">
       <c r="A47" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -4655,7 +4657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="24" hidden="1">
+    <row r="48" spans="1:5" ht="24">
       <c r="A48" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -4781,7 +4783,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="60" hidden="1">
+    <row r="55" spans="1:5" ht="60">
       <c r="A55" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -4799,7 +4801,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="108" hidden="1">
+    <row r="56" spans="1:5" ht="108">
       <c r="A56" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -4997,7 +4999,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="36" hidden="1">
+    <row r="67" spans="1:5" ht="36">
       <c r="A67" s="2">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -5069,7 +5071,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="72" hidden="1">
+    <row r="71" spans="1:5" ht="72">
       <c r="A71" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -5087,7 +5089,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="36" hidden="1">
+    <row r="72" spans="1:5" ht="36">
       <c r="A72" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -5105,7 +5107,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="24" hidden="1">
+    <row r="73" spans="1:5" ht="24">
       <c r="A73" s="2">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -5123,7 +5125,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="108" hidden="1">
+    <row r="74" spans="1:5" ht="108">
       <c r="A74" s="2">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -5141,7 +5143,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="24" hidden="1">
+    <row r="75" spans="1:5" ht="24">
       <c r="A75" s="2">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -5177,7 +5179,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="36" hidden="1">
+    <row r="77" spans="1:5" ht="36">
       <c r="A77" s="2">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -5195,7 +5197,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="252" hidden="1">
+    <row r="78" spans="1:5" ht="252">
       <c r="A78" s="2">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -5213,7 +5215,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="108" hidden="1">
+    <row r="79" spans="1:5" ht="108">
       <c r="A79" s="2">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -5231,7 +5233,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="72" hidden="1">
+    <row r="80" spans="1:5" ht="72">
       <c r="A80" s="2">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -5267,7 +5269,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="132" hidden="1">
+    <row r="82" spans="1:5" ht="132">
       <c r="A82" s="2">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -5285,79 +5287,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1">
-      <c r="A83" s="2">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" hidden="1">
-      <c r="A84" s="2">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" hidden="1">
-      <c r="A85" s="2">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" hidden="1">
-      <c r="A86" s="2">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" hidden="1">
-      <c r="A87" s="2">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" hidden="1">
-      <c r="A88" s="2">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A6:E88" xr:uid="{97F5E8DC-1E87-498B-87A0-85C3D3E301FF}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="たまに"/>
-        <filter val="ヘビロテ"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <dataConsolidate/>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -5365,13 +5299,13 @@
           <x14:formula1>
             <xm:f>選択肢!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B88</xm:sqref>
+          <xm:sqref>B7:B82</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4DAD76C-91C4-4909-83C2-BB34DA18E2C8}">
           <x14:formula1>
             <xm:f>選択肢!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C88</xm:sqref>
+          <xm:sqref>C7:C82</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/C#_memo.xlsx
+++ b/C#_memo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5A2F43-3724-4F81-9400-E232C5998904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28A1A10-6EA4-4DE0-9873-98B46C3C41D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="temp" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">機能一覧!$A$6:$E$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">機能一覧!$A$6:$F$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="167">
-  <si>
-    <t>＃</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="203">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -3385,6 +3381,247 @@
 }
 </t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>式</t>
+    <rPh sb="0" eb="1">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数初期化</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数宣言</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジェネリック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アンマネージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期</t>
+    <rPh sb="0" eb="3">
+      <t>ヒドウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文</t>
+    <rPh sb="0" eb="1">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>演算子</t>
+    <rPh sb="0" eb="3">
+      <t>エンザ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宣言</t>
+    <rPh sb="0" eb="2">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数初期化</t>
+    <rPh sb="0" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例外</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数初期化</t>
+    <rPh sb="0" eb="5">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンパイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構造体</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンストラクタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期</t>
+    <rPh sb="0" eb="3">
+      <t>ヒドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例外</t>
+    <rPh sb="0" eb="2">
+      <t>レイガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期</t>
+    <rPh sb="0" eb="3">
+      <t>ヒド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数初期化</t>
+    <rPh sb="0" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数宣言</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンスウセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構造体</t>
+    <rPh sb="0" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>演算子</t>
+    <rPh sb="0" eb="3">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数宣言</t>
+    <rPh sb="0" eb="4">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3544,7 +3781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3554,9 +3791,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3584,6 +3818,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3873,1418 +4113,1649 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D79" activeCellId="1" sqref="A83:XFD88 D79"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1"/>
-    <col min="2" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.625" style="1"/>
+    <col min="2" max="4" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5">
+    <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" customHeight="1">
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="120" customHeight="1">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120" customHeight="1">
       <c r="A8" s="2">
         <f>A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1">
       <c r="A9" s="2">
         <f t="shared" ref="A9:A27" si="0">A8+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="36">
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24">
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24">
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="84">
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="84">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="24">
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24">
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60">
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60">
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24">
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24">
+      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24">
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24">
+      <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="144">
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="144">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24">
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="72">
+      <c r="B23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="72">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="84">
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="84">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="216">
+      <c r="B25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="216">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="48">
+      <c r="B26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="48">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="24">
+      <c r="B27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24">
       <c r="A28" s="2">
         <f t="shared" ref="A28:A40" si="1">A27+1</f>
         <v>22</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="24">
+      <c r="B28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="144">
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="144">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="72">
+      <c r="B30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="72">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="24">
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="216">
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="216">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24">
+      <c r="B33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="24">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="24">
+      <c r="B34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="24">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="132">
+      <c r="B35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="132">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="72">
+      <c r="B36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="72">
       <c r="A37" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="108">
+      <c r="B37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="108">
       <c r="A38" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60">
+      <c r="B38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="60">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="24">
+      <c r="B39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="24">
+      <c r="B40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24">
       <c r="A41" s="2">
         <f t="shared" ref="A41:A82" si="2">A40+1</f>
         <v>35</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="24">
+      <c r="B41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="24">
       <c r="A42" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="252">
+      <c r="B42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="252">
       <c r="A43" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="24">
+      <c r="B43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24">
       <c r="A44" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="96">
+      <c r="B44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="96">
       <c r="A45" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="132">
+      <c r="B45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="132">
       <c r="A46" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="24">
+      <c r="B46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24">
       <c r="A47" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="24">
+      <c r="B47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="24">
       <c r="A48" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="300">
+      <c r="B48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="300">
       <c r="A49" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="96">
+      <c r="B49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="96">
       <c r="A50" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="264">
+      <c r="B50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="264">
       <c r="A51" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="24">
+      <c r="B51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24">
       <c r="A52" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="168">
+      <c r="B52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="168">
       <c r="A53" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="132">
+      <c r="B53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="132">
       <c r="A54" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="60">
+      <c r="B54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="60">
       <c r="A55" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="108">
+      <c r="B55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="108">
       <c r="A56" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="48">
+      <c r="B56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="48">
       <c r="A57" s="2">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="372">
+      <c r="B57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="372">
       <c r="A58" s="2">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="108">
+      <c r="B58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="108">
       <c r="A59" s="2">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="48">
+      <c r="B59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="48">
       <c r="A60" s="2">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="24">
+      <c r="B60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24">
       <c r="A61" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="24">
+      <c r="B61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24">
       <c r="A62" s="2">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="132">
+      <c r="B62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="132">
       <c r="A63" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="36">
+      <c r="B63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="36">
       <c r="A64" s="2">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="72">
+      <c r="B64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="72">
       <c r="A65" s="2">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="156">
+      <c r="B65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="156">
       <c r="A66" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="36">
+      <c r="B66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="36">
       <c r="A67" s="2">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="72">
+      <c r="B67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="72">
       <c r="A68" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="96">
+      <c r="B68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="96">
       <c r="A69" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="216">
+      <c r="B69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="216">
       <c r="A70" s="2">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="72">
+      <c r="B70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="72">
       <c r="A71" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="36">
+      <c r="B71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="24">
       <c r="A72" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="24">
+      <c r="B72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="24">
       <c r="A73" s="2">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="108">
+      <c r="B73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="108">
       <c r="A74" s="2">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="24">
+      <c r="B74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="24">
       <c r="A75" s="2">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="108">
+      <c r="B75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="108">
       <c r="A76" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="36">
+      <c r="B76" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="24">
       <c r="A77" s="2">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="252">
+      <c r="B77" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="252">
       <c r="A78" s="2">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="108">
+      <c r="B78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="108">
       <c r="A79" s="2">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="72">
+      <c r="B79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="72">
       <c r="A80" s="2">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="24">
+      <c r="B80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24">
       <c r="A81" s="2">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>109</v>
+      <c r="B81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="D81" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="132">
+    </row>
+    <row r="82" spans="1:6" ht="132">
       <c r="A82" s="2">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>166</v>
+      <c r="B82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5294,7 +5765,7 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84CE8267-30B4-4E98-BF91-CF103C935D07}">
           <x14:formula1>
             <xm:f>選択肢!$A$1:$A$11</xm:f>
@@ -5305,7 +5776,7 @@
           <x14:formula1>
             <xm:f>選択肢!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C82</xm:sqref>
+          <xm:sqref>D7:D82</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5323,78 +5794,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="5"/>
+    <col min="1" max="1" width="3.625" style="4"/>
     <col min="2" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/C#_memo.xlsx
+++ b/C#_memo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28A1A10-6EA4-4DE0-9873-98B46C3C41D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FBFC2-109C-44CC-BADD-F9865348F20A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1946,71 +1946,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">using System;
-class Program
-{
-    static void Main()
-    {
-        var x = 10;
-        var y = 20;
-        // x, y のうち、大きい方の参照を返す。この例の場合 y を参照。
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ref var m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> = ref Max(ref x, ref y);
-        // 参照の書き換えなので、その先の y が書き換わる。
-        m = 0;
-        Console.WriteLine($"{x}, {y}"); // 10, 0
-    }
-    static ref int Max(ref int x, ref int y)
-    {
-        if (x &lt; y) return ref y;
-        else return </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ref x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">;
-    }
-}
-</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <t>byte bitMask =</t>
     </r>
     <r>
@@ -3622,6 +3557,91 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">using System;
+class Program
+{
+    static void Main()
+    {
+        var x = 10;
+        var y = 20;
+        // x, y のうち、大きい方の参照を返す。この例の場合 y を参照。
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ref var m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> = ref Max(ref x, ref y);
+        // 参照の書き換えなので、その先の y が書き換わる。
+        m = 0;
+        Console.WriteLine($"{x}, {y}"); // 10, 0
+    }
+    static ref int Max(ref int x, ref int y)
+    {
+        if (x &lt; y) return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> y;
+        else return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ref x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">;
+    }
+}
+</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4116,7 +4136,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
@@ -4145,13 +4165,13 @@
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>102</v>
@@ -4171,7 +4191,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>103</v>
@@ -4192,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>108</v>
@@ -4213,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>108</v>
@@ -4234,7 +4254,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>103</v>
@@ -4255,7 +4275,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>108</v>
@@ -4276,7 +4296,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>103</v>
@@ -4297,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>108</v>
@@ -4318,7 +4338,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>103</v>
@@ -4339,7 +4359,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>107</v>
@@ -4360,7 +4380,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>108</v>
@@ -4381,7 +4401,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>103</v>
@@ -4402,7 +4422,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>106</v>
@@ -4423,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>106</v>
@@ -4444,7 +4464,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>106</v>
@@ -4465,7 +4485,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>108</v>
@@ -4486,7 +4506,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>106</v>
@@ -4507,7 +4527,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>105</v>
@@ -4528,10 +4548,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -4549,10 +4569,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>34</v>
@@ -4570,10 +4590,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>35</v>
@@ -4591,10 +4611,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>36</v>
@@ -4612,7 +4632,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>103</v>
@@ -4633,10 +4653,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>38</v>
@@ -4654,7 +4674,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>103</v>
@@ -4675,7 +4695,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>103</v>
@@ -4696,7 +4716,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>108</v>
@@ -4717,7 +4737,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>108</v>
@@ -4738,7 +4758,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>108</v>
@@ -4759,7 +4779,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>106</v>
@@ -4780,7 +4800,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>108</v>
@@ -4801,10 +4821,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>46</v>
@@ -4822,7 +4842,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>108</v>
@@ -4843,7 +4863,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>103</v>
@@ -4864,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>106</v>
@@ -4885,7 +4905,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>106</v>
@@ -4906,7 +4926,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>105</v>
@@ -4927,7 +4947,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>103</v>
@@ -4948,7 +4968,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>103</v>
@@ -4969,10 +4989,10 @@
         <v>10</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>54</v>
@@ -4990,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>106</v>
@@ -5011,7 +5031,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>106</v>
@@ -5032,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>106</v>
@@ -5053,16 +5073,16 @@
         <v>10</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="96">
@@ -5074,7 +5094,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>108</v>
@@ -5095,7 +5115,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>108</v>
@@ -5116,7 +5136,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>108</v>
@@ -5125,7 +5145,7 @@
         <v>61</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="168">
@@ -5137,7 +5157,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>108</v>
@@ -5146,7 +5166,7 @@
         <v>62</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="132">
@@ -5158,7 +5178,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>108</v>
@@ -5167,7 +5187,7 @@
         <v>63</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="60">
@@ -5179,7 +5199,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>106</v>
@@ -5188,7 +5208,7 @@
         <v>64</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="108">
@@ -5200,7 +5220,7 @@
         <v>11</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>106</v>
@@ -5209,7 +5229,7 @@
         <v>65</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="48">
@@ -5221,7 +5241,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>103</v>
@@ -5230,7 +5250,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="372">
@@ -5242,16 +5262,16 @@
         <v>11</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="108">
@@ -5263,7 +5283,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>108</v>
@@ -5272,7 +5292,7 @@
         <v>68</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="48">
@@ -5284,7 +5304,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>108</v>
@@ -5293,7 +5313,7 @@
         <v>69</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="24">
@@ -5305,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>108</v>
@@ -5314,7 +5334,7 @@
         <v>70</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24">
@@ -5326,7 +5346,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>108</v>
@@ -5335,7 +5355,7 @@
         <v>71</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="132">
@@ -5347,16 +5367,16 @@
         <v>12</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="36">
@@ -5368,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>108</v>
@@ -5377,7 +5397,7 @@
         <v>73</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="72">
@@ -5389,16 +5409,16 @@
         <v>12</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="156">
@@ -5410,16 +5430,16 @@
         <v>12</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="36">
@@ -5431,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>106</v>
@@ -5440,7 +5460,7 @@
         <v>76</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="72">
@@ -5452,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>108</v>
@@ -5461,7 +5481,7 @@
         <v>77</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="96">
@@ -5473,7 +5493,7 @@
         <v>13</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>108</v>
@@ -5482,7 +5502,7 @@
         <v>78</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="216">
@@ -5494,7 +5514,7 @@
         <v>13</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>108</v>
@@ -5503,7 +5523,7 @@
         <v>79</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="72">
@@ -5515,7 +5535,7 @@
         <v>13</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>106</v>
@@ -5524,7 +5544,7 @@
         <v>80</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24">
@@ -5536,7 +5556,7 @@
         <v>13</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>106</v>
@@ -5545,7 +5565,7 @@
         <v>81</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="24">
@@ -5557,7 +5577,7 @@
         <v>13</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>106</v>
@@ -5566,7 +5586,7 @@
         <v>82</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="108">
@@ -5578,7 +5598,7 @@
         <v>13</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>106</v>
@@ -5587,7 +5607,7 @@
         <v>83</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="24">
@@ -5599,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>106</v>
@@ -5608,7 +5628,7 @@
         <v>84</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="108">
@@ -5620,7 +5640,7 @@
         <v>13</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>108</v>
@@ -5629,7 +5649,7 @@
         <v>85</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="24">
@@ -5641,7 +5661,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>106</v>
@@ -5650,7 +5670,7 @@
         <v>86</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="252">
@@ -5662,7 +5682,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>106</v>
@@ -5671,7 +5691,7 @@
         <v>87</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="108">
@@ -5683,7 +5703,7 @@
         <v>14</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>106</v>
@@ -5692,7 +5712,7 @@
         <v>88</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="72">
@@ -5704,7 +5724,7 @@
         <v>14</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>106</v>
@@ -5713,7 +5733,7 @@
         <v>89</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="24">
@@ -5725,16 +5745,16 @@
         <v>14</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>108</v>
       </c>
       <c r="E81" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="132">
@@ -5746,7 +5766,7 @@
         <v>14</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>106</v>
@@ -5755,17 +5775,18 @@
         <v>90</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A6:F82" xr:uid="{1060CC45-A1B7-44B9-9E7C-1B2464F95C7F}"/>
   <dataConsolidate/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84CE8267-30B4-4E98-BF91-CF103C935D07}">
           <x14:formula1>
             <xm:f>選択肢!$A$1:$A$11</xm:f>

--- a/C#_memo.xlsx
+++ b/C#_memo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FBFC2-109C-44CC-BADD-F9865348F20A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D83A862-9515-461A-A959-53F8CEA618AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1315,33 +1315,6 @@
   </si>
   <si>
     <r>
-      <t>Console.WriteLine(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>nameof(MyClass)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">);
-</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="9"/>
         <rFont val="Meiryo UI"/>
@@ -3640,6 +3613,54 @@
       <t xml:space="preserve">;
     }
 }
+</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Console.WriteLine(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nameof(MyClass)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">);  // "MyClass"
+string name = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nameof(DateTime.Now)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">;  // "Now"
 </t>
     </r>
     <phoneticPr fontId="2"/>
@@ -4135,8 +4156,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
@@ -4165,13 +4186,13 @@
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>102</v>
@@ -4191,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>103</v>
@@ -4212,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>108</v>
@@ -4233,7 +4254,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>108</v>
@@ -4254,7 +4275,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>103</v>
@@ -4275,7 +4296,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>108</v>
@@ -4296,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>103</v>
@@ -4317,7 +4338,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>108</v>
@@ -4338,7 +4359,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>103</v>
@@ -4359,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>107</v>
@@ -4380,7 +4401,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>108</v>
@@ -4401,7 +4422,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>103</v>
@@ -4422,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>106</v>
@@ -4443,7 +4464,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>106</v>
@@ -4464,7 +4485,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>106</v>
@@ -4485,7 +4506,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>108</v>
@@ -4506,7 +4527,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>106</v>
@@ -4527,7 +4548,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>105</v>
@@ -4548,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>108</v>
@@ -4569,7 +4590,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>108</v>
@@ -4590,7 +4611,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>106</v>
@@ -4611,7 +4632,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>106</v>
@@ -4632,7 +4653,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>103</v>
@@ -4644,7 +4665,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="24">
+    <row r="29" spans="1:6" ht="48">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -4653,7 +4674,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>108</v>
@@ -4662,7 +4683,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="144">
@@ -4674,7 +4695,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>103</v>
@@ -4683,7 +4704,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="72">
@@ -4695,7 +4716,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>103</v>
@@ -4704,7 +4725,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24">
@@ -4716,7 +4737,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>108</v>
@@ -4725,7 +4746,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="216">
@@ -4737,7 +4758,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>108</v>
@@ -4746,7 +4767,7 @@
         <v>42</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24">
@@ -4758,7 +4779,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>108</v>
@@ -4779,7 +4800,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>106</v>
@@ -4800,7 +4821,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>108</v>
@@ -4809,7 +4830,7 @@
         <v>45</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="72">
@@ -4821,7 +4842,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>106</v>
@@ -4830,7 +4851,7 @@
         <v>46</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="108">
@@ -4842,7 +4863,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>108</v>
@@ -4851,7 +4872,7 @@
         <v>47</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="60">
@@ -4863,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>103</v>
@@ -4872,7 +4893,7 @@
         <v>48</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24">
@@ -4884,7 +4905,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>106</v>
@@ -4905,7 +4926,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>106</v>
@@ -4926,7 +4947,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>105</v>
@@ -4947,7 +4968,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>103</v>
@@ -4956,7 +4977,7 @@
         <v>52</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24">
@@ -4968,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>103</v>
@@ -4977,7 +4998,7 @@
         <v>53</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="96">
@@ -4989,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>108</v>
@@ -4998,7 +5019,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="132">
@@ -5010,7 +5031,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>106</v>
@@ -5019,7 +5040,7 @@
         <v>55</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24">
@@ -5031,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>106</v>
@@ -5052,7 +5073,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>106</v>
@@ -5073,7 +5094,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>108</v>
@@ -5082,7 +5103,7 @@
         <v>58</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="96">
@@ -5094,7 +5115,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>108</v>
@@ -5103,7 +5124,7 @@
         <v>59</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="264">
@@ -5115,7 +5136,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>108</v>
@@ -5124,7 +5145,7 @@
         <v>60</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24">
@@ -5136,7 +5157,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>108</v>
@@ -5145,7 +5166,7 @@
         <v>61</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="168">
@@ -5157,7 +5178,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>108</v>
@@ -5166,7 +5187,7 @@
         <v>62</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="132">
@@ -5178,7 +5199,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>108</v>
@@ -5187,7 +5208,7 @@
         <v>63</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="60">
@@ -5199,7 +5220,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>106</v>
@@ -5208,7 +5229,7 @@
         <v>64</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="108">
@@ -5220,7 +5241,7 @@
         <v>11</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>106</v>
@@ -5229,7 +5250,7 @@
         <v>65</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="48">
@@ -5241,7 +5262,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>103</v>
@@ -5250,7 +5271,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="372">
@@ -5262,7 +5283,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>106</v>
@@ -5271,7 +5292,7 @@
         <v>67</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="108">
@@ -5283,7 +5304,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>108</v>
@@ -5292,7 +5313,7 @@
         <v>68</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="48">
@@ -5304,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>108</v>
@@ -5313,7 +5334,7 @@
         <v>69</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="24">
@@ -5325,7 +5346,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>108</v>
@@ -5334,7 +5355,7 @@
         <v>70</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24">
@@ -5346,7 +5367,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>108</v>
@@ -5355,7 +5376,7 @@
         <v>71</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="132">
@@ -5367,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>108</v>
@@ -5376,7 +5397,7 @@
         <v>72</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="36">
@@ -5388,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>108</v>
@@ -5397,7 +5418,7 @@
         <v>73</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="72">
@@ -5409,7 +5430,7 @@
         <v>12</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>108</v>
@@ -5418,7 +5439,7 @@
         <v>74</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="156">
@@ -5430,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>108</v>
@@ -5439,7 +5460,7 @@
         <v>75</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="36">
@@ -5451,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>106</v>
@@ -5460,7 +5481,7 @@
         <v>76</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="72">
@@ -5472,7 +5493,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>108</v>
@@ -5481,7 +5502,7 @@
         <v>77</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="96">
@@ -5493,7 +5514,7 @@
         <v>13</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>108</v>
@@ -5502,7 +5523,7 @@
         <v>78</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="216">
@@ -5514,7 +5535,7 @@
         <v>13</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>108</v>
@@ -5523,7 +5544,7 @@
         <v>79</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="72">
@@ -5535,7 +5556,7 @@
         <v>13</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>106</v>
@@ -5544,7 +5565,7 @@
         <v>80</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24">
@@ -5556,7 +5577,7 @@
         <v>13</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>106</v>
@@ -5565,7 +5586,7 @@
         <v>81</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="24">
@@ -5577,7 +5598,7 @@
         <v>13</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>106</v>
@@ -5586,7 +5607,7 @@
         <v>82</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="108">
@@ -5598,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>106</v>
@@ -5607,7 +5628,7 @@
         <v>83</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="24">
@@ -5619,7 +5640,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>106</v>
@@ -5628,7 +5649,7 @@
         <v>84</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="108">
@@ -5640,7 +5661,7 @@
         <v>13</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>108</v>
@@ -5649,7 +5670,7 @@
         <v>85</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="24">
@@ -5661,7 +5682,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>106</v>
@@ -5670,7 +5691,7 @@
         <v>86</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="252">
@@ -5682,7 +5703,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>106</v>
@@ -5691,7 +5712,7 @@
         <v>87</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="108">
@@ -5703,7 +5724,7 @@
         <v>14</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>106</v>
@@ -5712,7 +5733,7 @@
         <v>88</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="72">
@@ -5724,7 +5745,7 @@
         <v>14</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>106</v>
@@ -5733,7 +5754,7 @@
         <v>89</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="24">
@@ -5745,16 +5766,16 @@
         <v>14</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>108</v>
       </c>
       <c r="E81" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="132">
@@ -5766,7 +5787,7 @@
         <v>14</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>106</v>
@@ -5775,7 +5796,7 @@
         <v>90</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/C#_memo.xlsx
+++ b/C#_memo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D83A862-9515-461A-A959-53F8CEA618AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B913A28-F89F-4805-BD7B-D214D43E0064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4151,13 +4151,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F8650A-D21B-4B2B-A5FD-CD62F466427A}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
@@ -4204,7 +4204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1">
+    <row r="7" spans="1:6" ht="51" hidden="1" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120" customHeight="1">
+    <row r="8" spans="1:6" ht="120" hidden="1" customHeight="1">
       <c r="A8" s="2">
         <f>A7+1</f>
         <v>2</v>
@@ -4245,7 +4245,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1">
+    <row r="9" spans="1:6" ht="27" hidden="1" customHeight="1">
       <c r="A9" s="2">
         <f t="shared" ref="A9:A27" si="0">A8+1</f>
         <v>3</v>
@@ -4266,7 +4266,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="36">
+    <row r="10" spans="1:6" ht="36" hidden="1">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4287,7 +4287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24">
+    <row r="11" spans="1:6" ht="24" hidden="1">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4308,7 +4308,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24">
+    <row r="12" spans="1:6" ht="24" hidden="1">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4329,7 +4329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="84">
+    <row r="13" spans="1:6" ht="84" hidden="1">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4371,7 +4371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24">
+    <row r="15" spans="1:6" ht="24" hidden="1">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4392,7 +4392,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="60">
+    <row r="16" spans="1:6" ht="60" hidden="1">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4413,7 +4413,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60">
+    <row r="17" spans="1:6" ht="60" hidden="1">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4434,7 +4434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24">
+    <row r="18" spans="1:6" ht="24" hidden="1">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4455,7 +4455,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24">
+    <row r="19" spans="1:6" ht="24" hidden="1">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4476,7 +4476,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24">
+    <row r="20" spans="1:6" ht="24" hidden="1">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4497,7 +4497,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24">
+    <row r="21" spans="1:6" ht="24" hidden="1">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4518,7 +4518,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="144">
+    <row r="22" spans="1:6" ht="144" hidden="1">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4539,7 +4539,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24">
+    <row r="23" spans="1:6" ht="24" hidden="1">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4602,7 +4602,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="216">
+    <row r="26" spans="1:6" ht="216" hidden="1">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4623,7 +4623,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="48">
+    <row r="27" spans="1:6" ht="48" hidden="1">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4644,7 +4644,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24">
+    <row r="28" spans="1:6" ht="24" hidden="1">
       <c r="A28" s="2">
         <f t="shared" ref="A28:A40" si="1">A27+1</f>
         <v>22</v>
@@ -4665,7 +4665,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="48">
+    <row r="29" spans="1:6" ht="48" hidden="1">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -4686,7 +4686,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="144">
+    <row r="30" spans="1:6" ht="144" hidden="1">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -4707,7 +4707,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="72">
+    <row r="31" spans="1:6" ht="72" hidden="1">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4728,7 +4728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="24">
+    <row r="32" spans="1:6" ht="24" hidden="1">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -4749,7 +4749,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="216">
+    <row r="33" spans="1:6" ht="216" hidden="1">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -4770,7 +4770,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="24">
+    <row r="34" spans="1:6" ht="24" hidden="1">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -4791,7 +4791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="24">
+    <row r="35" spans="1:6" ht="24" hidden="1">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -4812,7 +4812,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="132">
+    <row r="36" spans="1:6" ht="132" hidden="1">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -4833,7 +4833,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="72">
+    <row r="37" spans="1:6" ht="72" hidden="1">
       <c r="A37" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -4854,7 +4854,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="108">
+    <row r="38" spans="1:6" ht="108" hidden="1">
       <c r="A38" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -4875,7 +4875,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="60">
+    <row r="39" spans="1:6" ht="60" hidden="1">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -4896,7 +4896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="24">
+    <row r="40" spans="1:6" ht="24" hidden="1">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -4917,7 +4917,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="24">
+    <row r="41" spans="1:6" ht="24" hidden="1">
       <c r="A41" s="2">
         <f t="shared" ref="A41:A82" si="2">A40+1</f>
         <v>35</v>
@@ -4938,7 +4938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="24">
+    <row r="42" spans="1:6" ht="24" hidden="1">
       <c r="A42" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -4959,7 +4959,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="252">
+    <row r="43" spans="1:6" ht="252" hidden="1">
       <c r="A43" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -4980,7 +4980,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="24">
+    <row r="44" spans="1:6" ht="24" hidden="1">
       <c r="A44" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -5001,7 +5001,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="96">
+    <row r="45" spans="1:6" ht="96" hidden="1">
       <c r="A45" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -5022,7 +5022,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="132">
+    <row r="46" spans="1:6" ht="132" hidden="1">
       <c r="A46" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -5043,7 +5043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="24">
+    <row r="47" spans="1:6" ht="24" hidden="1">
       <c r="A47" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -5064,7 +5064,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="24">
+    <row r="48" spans="1:6" ht="24" hidden="1">
       <c r="A48" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -5085,7 +5085,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="300">
+    <row r="49" spans="1:6" ht="300" hidden="1">
       <c r="A49" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -5106,7 +5106,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="96">
+    <row r="50" spans="1:6" ht="96" hidden="1">
       <c r="A50" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -5127,7 +5127,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="264">
+    <row r="51" spans="1:6" ht="264" hidden="1">
       <c r="A51" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -5148,7 +5148,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="24">
+    <row r="52" spans="1:6" ht="24" hidden="1">
       <c r="A52" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -5169,7 +5169,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="168">
+    <row r="53" spans="1:6" ht="168" hidden="1">
       <c r="A53" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5190,7 +5190,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="132">
+    <row r="54" spans="1:6" ht="132" hidden="1">
       <c r="A54" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -5211,7 +5211,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="60">
+    <row r="55" spans="1:6" ht="60" hidden="1">
       <c r="A55" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -5232,7 +5232,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="108">
+    <row r="56" spans="1:6" ht="108" hidden="1">
       <c r="A56" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -5253,7 +5253,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="48">
+    <row r="57" spans="1:6" ht="48" hidden="1">
       <c r="A57" s="2">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5274,7 +5274,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="372">
+    <row r="58" spans="1:6" ht="372" hidden="1">
       <c r="A58" s="2">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -5295,7 +5295,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="108">
+    <row r="59" spans="1:6" ht="108" hidden="1">
       <c r="A59" s="2">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -5316,7 +5316,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="48">
+    <row r="60" spans="1:6" ht="48" hidden="1">
       <c r="A60" s="2">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -5337,7 +5337,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="24">
+    <row r="61" spans="1:6" ht="24" hidden="1">
       <c r="A61" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -5358,7 +5358,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="24">
+    <row r="62" spans="1:6" ht="24" hidden="1">
       <c r="A62" s="2">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -5379,7 +5379,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="132">
+    <row r="63" spans="1:6" ht="132" hidden="1">
       <c r="A63" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -5400,7 +5400,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="36">
+    <row r="64" spans="1:6" ht="36" hidden="1">
       <c r="A64" s="2">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -5421,7 +5421,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="72">
+    <row r="65" spans="1:6" ht="72" hidden="1">
       <c r="A65" s="2">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -5442,7 +5442,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="156">
+    <row r="66" spans="1:6" ht="156" hidden="1">
       <c r="A66" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -5463,7 +5463,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="36">
+    <row r="67" spans="1:6" ht="36" hidden="1">
       <c r="A67" s="2">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -5484,7 +5484,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="72">
+    <row r="68" spans="1:6" ht="72" hidden="1">
       <c r="A68" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -5505,7 +5505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="96">
+    <row r="69" spans="1:6" ht="96" hidden="1">
       <c r="A69" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -5526,7 +5526,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="216">
+    <row r="70" spans="1:6" ht="216" hidden="1">
       <c r="A70" s="2">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -5547,7 +5547,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="72">
+    <row r="71" spans="1:6" ht="72" hidden="1">
       <c r="A71" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -5568,7 +5568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="24">
+    <row r="72" spans="1:6" ht="24" hidden="1">
       <c r="A72" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -5589,7 +5589,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="24">
+    <row r="73" spans="1:6" ht="24" hidden="1">
       <c r="A73" s="2">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -5610,7 +5610,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="108">
+    <row r="74" spans="1:6" ht="108" hidden="1">
       <c r="A74" s="2">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -5631,7 +5631,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="24">
+    <row r="75" spans="1:6" ht="24" hidden="1">
       <c r="A75" s="2">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -5673,7 +5673,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="24">
+    <row r="77" spans="1:6" ht="24" hidden="1">
       <c r="A77" s="2">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -5694,7 +5694,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="252">
+    <row r="78" spans="1:6" ht="252" hidden="1">
       <c r="A78" s="2">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -5715,7 +5715,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="108">
+    <row r="79" spans="1:6" ht="108" hidden="1">
       <c r="A79" s="2">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -5736,7 +5736,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="72">
+    <row r="80" spans="1:6" ht="72" hidden="1">
       <c r="A80" s="2">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -5757,7 +5757,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="24">
+    <row r="81" spans="1:6" ht="24" hidden="1">
       <c r="A81" s="2">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -5778,7 +5778,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="132">
+    <row r="82" spans="1:6" ht="132" hidden="1">
       <c r="A82" s="2">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -5800,7 +5800,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:F82" xr:uid="{1060CC45-A1B7-44B9-9E7C-1B2464F95C7F}"/>
+  <autoFilter ref="A6:F82" xr:uid="{1060CC45-A1B7-44B9-9E7C-1B2464F95C7F}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="プロパティ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataConsolidate/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
